--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2890612909677564</v>
+        <v>-0.2626095943911887</v>
       </c>
       <c r="C2">
-        <v>2.030406504440776</v>
+        <v>1.949383735764183</v>
       </c>
       <c r="D2">
-        <v>17.27526652731169</v>
+        <v>16.52272044676487</v>
       </c>
       <c r="E2">
-        <v>4.156352550892632</v>
+        <v>4.064814933888734</v>
       </c>
       <c r="F2">
-        <v>4.243861797838796</v>
+        <v>4.147487754911329</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01717479231196643</v>
+        <v>-0.01304390213147815</v>
       </c>
       <c r="C3">
-        <v>1.860338267257182</v>
+        <v>1.772198340847518</v>
       </c>
       <c r="D3">
-        <v>11.47213377336106</v>
+        <v>10.9418263788771</v>
       </c>
       <c r="E3">
-        <v>3.387053848606641</v>
+        <v>3.307843161166669</v>
       </c>
       <c r="F3">
-        <v>3.470652782959367</v>
+        <v>3.385659091639844</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6961311302141999</v>
+        <v>-0.660492300833325</v>
       </c>
       <c r="C4">
-        <v>1.262659380239522</v>
+        <v>1.197293372571959</v>
       </c>
       <c r="D4">
-        <v>5.26568971994319</v>
+        <v>5.006510981504795</v>
       </c>
       <c r="E4">
-        <v>2.294709070872208</v>
+        <v>2.237523403565825</v>
       </c>
       <c r="F4">
-        <v>2.243374143300993</v>
+        <v>2.190610405148969</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.06237508175062094</v>
+        <v>-0.05106328621311902</v>
       </c>
       <c r="C5">
-        <v>0.7818919296381945</v>
+        <v>0.7433681293355469</v>
       </c>
       <c r="D5">
-        <v>1.944443509919603</v>
+        <v>1.840802665129192</v>
       </c>
       <c r="E5">
-        <v>1.394433042465504</v>
+        <v>1.356761830657537</v>
       </c>
       <c r="F5">
-        <v>1.431209750968815</v>
+        <v>1.391022042252352</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.07605760032594885</v>
+        <v>-0.06395863908153489</v>
       </c>
       <c r="C6">
-        <v>0.8444389541493096</v>
+        <v>0.8000673122416484</v>
       </c>
       <c r="D6">
-        <v>1.506289129091125</v>
+        <v>1.420101517000478</v>
       </c>
       <c r="E6">
-        <v>1.227309711968061</v>
+        <v>1.191680123607203</v>
       </c>
       <c r="F6">
-        <v>1.260463935817194</v>
+        <v>1.222570274741316</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04726610300954285</v>
+        <v>-0.03738556241501667</v>
       </c>
       <c r="C7">
-        <v>0.7565738536263636</v>
+        <v>0.71332745744033</v>
       </c>
       <c r="D7">
-        <v>1.001673623710359</v>
+        <v>0.9386152008072798</v>
       </c>
       <c r="E7">
-        <v>1.000836462020823</v>
+        <v>0.9688215526129049</v>
       </c>
       <c r="F7">
-        <v>1.030487511044016</v>
+        <v>0.9961666341101381</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05525208841800669</v>
+        <v>0.06091063799584202</v>
       </c>
       <c r="C8">
-        <v>0.6740364309460491</v>
+        <v>0.6343285541743425</v>
       </c>
       <c r="D8">
-        <v>0.7735077234301774</v>
+        <v>0.7182370180715076</v>
       </c>
       <c r="E8">
-        <v>0.8794928785556921</v>
+        <v>0.8474886536535505</v>
       </c>
       <c r="F8">
-        <v>0.9065421072217226</v>
+        <v>0.8713121394001694</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1654835280860786</v>
+        <v>0.1648078376396195</v>
       </c>
       <c r="C9">
-        <v>0.5852799221637009</v>
+        <v>0.5511977509794913</v>
       </c>
       <c r="D9">
-        <v>0.4790629102795906</v>
+        <v>0.4449526034813988</v>
       </c>
       <c r="E9">
-        <v>0.6921437063786614</v>
+        <v>0.6670476770676882</v>
       </c>
       <c r="F9">
-        <v>0.6956585617331363</v>
+        <v>0.6675655114989703</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1956465196920618</v>
+        <v>0.1934705323399399</v>
       </c>
       <c r="C10">
-        <v>0.6247019589029444</v>
+        <v>0.5837592819091525</v>
       </c>
       <c r="D10">
-        <v>0.6148254650112467</v>
+        <v>0.5633658838424578</v>
       </c>
       <c r="E10">
-        <v>0.7841080697271561</v>
+        <v>0.7505770339162116</v>
       </c>
       <c r="F10">
-        <v>0.7879706486534218</v>
+        <v>0.7506675864274018</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.256043103611018</v>
+        <v>0.2495182209949923</v>
       </c>
       <c r="C11">
-        <v>0.6284526570798078</v>
+        <v>0.5857948382811914</v>
       </c>
       <c r="D11">
-        <v>0.4983616464759811</v>
+        <v>0.4537182255294631</v>
       </c>
       <c r="E11">
-        <v>0.705947339732916</v>
+        <v>0.6735860936283224</v>
       </c>
       <c r="F11">
-        <v>0.6847412213383878</v>
+        <v>0.6492850719707854</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2626095943911887</v>
+        <v>-0.3731803712827915</v>
       </c>
       <c r="C2">
-        <v>1.949383735764183</v>
+        <v>2.007670690660352</v>
       </c>
       <c r="D2">
-        <v>16.52272044676487</v>
+        <v>12.87239756141505</v>
       </c>
       <c r="E2">
-        <v>4.064814933888734</v>
+        <v>3.58781236429876</v>
       </c>
       <c r="F2">
-        <v>4.147487754911329</v>
+        <v>3.652324422179951</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01304390213147815</v>
+        <v>-0.4804827079566977</v>
       </c>
       <c r="C3">
-        <v>1.772198340847518</v>
+        <v>1.161321962968468</v>
       </c>
       <c r="D3">
-        <v>10.9418263788771</v>
+        <v>5.130197931044437</v>
       </c>
       <c r="E3">
-        <v>3.307843161166669</v>
+        <v>2.264994024505238</v>
       </c>
       <c r="F3">
-        <v>3.385659091639844</v>
+        <v>2.268105159228511</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.660492300833325</v>
+        <v>-0.2697575283137488</v>
       </c>
       <c r="C4">
-        <v>1.197293372571959</v>
+        <v>0.8727440841527818</v>
       </c>
       <c r="D4">
-        <v>5.006510981504795</v>
+        <v>2.711211561858076</v>
       </c>
       <c r="E4">
-        <v>2.237523403565825</v>
+        <v>1.64657570790355</v>
       </c>
       <c r="F4">
-        <v>2.190610405148969</v>
+        <v>1.666525676141245</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05106328621311902</v>
+        <v>-0.02251358845263601</v>
       </c>
       <c r="C5">
-        <v>0.7433681293355469</v>
+        <v>0.8231985852708921</v>
       </c>
       <c r="D5">
-        <v>1.840802665129192</v>
+        <v>1.758851113115051</v>
       </c>
       <c r="E5">
-        <v>1.356761830657537</v>
+        <v>1.326216842418709</v>
       </c>
       <c r="F5">
-        <v>1.391022042252352</v>
+        <v>1.362361935462548</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.06395863908153489</v>
+        <v>-0.1079376821351743</v>
       </c>
       <c r="C6">
-        <v>0.8000673122416484</v>
+        <v>0.7903692723160057</v>
       </c>
       <c r="D6">
-        <v>1.420101517000478</v>
+        <v>1.18367369466905</v>
       </c>
       <c r="E6">
-        <v>1.191680123607203</v>
+        <v>1.087967690085073</v>
       </c>
       <c r="F6">
-        <v>1.222570274741316</v>
+        <v>1.113986395682008</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03738556241501667</v>
+        <v>0.05847297744281363</v>
       </c>
       <c r="C7">
-        <v>0.71332745744033</v>
+        <v>0.6864530745518149</v>
       </c>
       <c r="D7">
-        <v>0.9386152008072798</v>
+        <v>0.8768293907560101</v>
       </c>
       <c r="E7">
-        <v>0.9688215526129049</v>
+        <v>0.9363916866119701</v>
       </c>
       <c r="F7">
-        <v>0.9961666341101381</v>
+        <v>0.9633267594741898</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06091063799584202</v>
+        <v>0.1260832718587093</v>
       </c>
       <c r="C8">
-        <v>0.6343285541743425</v>
+        <v>0.5907394480024477</v>
       </c>
       <c r="D8">
-        <v>0.7182370180715076</v>
+        <v>0.5291801755352681</v>
       </c>
       <c r="E8">
-        <v>0.8474886536535505</v>
+        <v>0.7274477132655432</v>
       </c>
       <c r="F8">
-        <v>0.8713121394001694</v>
+        <v>0.7399338234140823</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1648078376396195</v>
+        <v>0.189738633461222</v>
       </c>
       <c r="C9">
-        <v>0.5511977509794913</v>
+        <v>0.6135846084182608</v>
       </c>
       <c r="D9">
-        <v>0.4449526034813988</v>
+        <v>0.6359933741545197</v>
       </c>
       <c r="E9">
-        <v>0.6670476770676882</v>
+        <v>0.7974919273287472</v>
       </c>
       <c r="F9">
-        <v>0.6675655114989703</v>
+        <v>0.8017787981776971</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1934705323399399</v>
+        <v>0.2282491029459698</v>
       </c>
       <c r="C10">
-        <v>0.5837592819091525</v>
+        <v>0.5916736138517826</v>
       </c>
       <c r="D10">
-        <v>0.5633658838424578</v>
+        <v>0.4825523572072717</v>
       </c>
       <c r="E10">
-        <v>0.7505770339162116</v>
+        <v>0.6946598859926142</v>
       </c>
       <c r="F10">
-        <v>0.7506675864274018</v>
+        <v>0.6808572570925593</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2495182209949923</v>
+        <v>0.2349671465221997</v>
       </c>
       <c r="C11">
-        <v>0.5857948382811914</v>
+        <v>0.5153392861830149</v>
       </c>
       <c r="D11">
-        <v>0.4537182255294631</v>
+        <v>0.3670491565632086</v>
       </c>
       <c r="E11">
-        <v>0.6735860936283224</v>
+        <v>0.6058458191348758</v>
       </c>
       <c r="F11">
-        <v>0.6492850719707854</v>
+        <v>0.5812282079097323</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3731803712827915</v>
+        <v>-0.2626095943911887</v>
       </c>
       <c r="C2">
-        <v>2.007670690660352</v>
+        <v>1.949383735764183</v>
       </c>
       <c r="D2">
-        <v>12.87239756141505</v>
+        <v>16.52272044676487</v>
       </c>
       <c r="E2">
-        <v>3.58781236429876</v>
+        <v>4.064814933888734</v>
       </c>
       <c r="F2">
-        <v>3.652324422179951</v>
+        <v>4.147487754911329</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.4804827079566977</v>
+        <v>-0.01304390213147815</v>
       </c>
       <c r="C3">
-        <v>1.161321962968468</v>
+        <v>1.772198340847518</v>
       </c>
       <c r="D3">
-        <v>5.130197931044437</v>
+        <v>10.9418263788771</v>
       </c>
       <c r="E3">
-        <v>2.264994024505238</v>
+        <v>3.307843161166669</v>
       </c>
       <c r="F3">
-        <v>2.268105159228511</v>
+        <v>3.385659091639844</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2697575283137488</v>
+        <v>-0.660492300833325</v>
       </c>
       <c r="C4">
-        <v>0.8727440841527818</v>
+        <v>1.197293372571959</v>
       </c>
       <c r="D4">
-        <v>2.711211561858076</v>
+        <v>5.006510981504795</v>
       </c>
       <c r="E4">
-        <v>1.64657570790355</v>
+        <v>2.237523403565825</v>
       </c>
       <c r="F4">
-        <v>1.666525676141245</v>
+        <v>2.190610405148969</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02251358845263601</v>
+        <v>-0.05106328621311902</v>
       </c>
       <c r="C5">
-        <v>0.8231985852708921</v>
+        <v>0.7433681293355469</v>
       </c>
       <c r="D5">
-        <v>1.758851113115051</v>
+        <v>1.840802665129192</v>
       </c>
       <c r="E5">
-        <v>1.326216842418709</v>
+        <v>1.356761830657537</v>
       </c>
       <c r="F5">
-        <v>1.362361935462548</v>
+        <v>1.391022042252352</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1079376821351743</v>
+        <v>-0.06395863908153489</v>
       </c>
       <c r="C6">
-        <v>0.7903692723160057</v>
+        <v>0.8000673122416484</v>
       </c>
       <c r="D6">
-        <v>1.18367369466905</v>
+        <v>1.420101517000478</v>
       </c>
       <c r="E6">
-        <v>1.087967690085073</v>
+        <v>1.191680123607203</v>
       </c>
       <c r="F6">
-        <v>1.113986395682008</v>
+        <v>1.222570274741316</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05847297744281363</v>
+        <v>-0.03738556241501667</v>
       </c>
       <c r="C7">
-        <v>0.6864530745518149</v>
+        <v>0.71332745744033</v>
       </c>
       <c r="D7">
-        <v>0.8768293907560101</v>
+        <v>0.9386152008072798</v>
       </c>
       <c r="E7">
-        <v>0.9363916866119701</v>
+        <v>0.9688215526129049</v>
       </c>
       <c r="F7">
-        <v>0.9633267594741898</v>
+        <v>0.9961666341101381</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1260832718587093</v>
+        <v>0.06091063799584202</v>
       </c>
       <c r="C8">
-        <v>0.5907394480024477</v>
+        <v>0.6343285541743425</v>
       </c>
       <c r="D8">
-        <v>0.5291801755352681</v>
+        <v>0.7182370180715076</v>
       </c>
       <c r="E8">
-        <v>0.7274477132655432</v>
+        <v>0.8474886536535505</v>
       </c>
       <c r="F8">
-        <v>0.7399338234140823</v>
+        <v>0.8713121394001694</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.189738633461222</v>
+        <v>0.1648078376396195</v>
       </c>
       <c r="C9">
-        <v>0.6135846084182608</v>
+        <v>0.5511977509794913</v>
       </c>
       <c r="D9">
-        <v>0.6359933741545197</v>
+        <v>0.4449526034813988</v>
       </c>
       <c r="E9">
-        <v>0.7974919273287472</v>
+        <v>0.6670476770676882</v>
       </c>
       <c r="F9">
-        <v>0.8017787981776971</v>
+        <v>0.6675655114989703</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2282491029459698</v>
+        <v>0.1934705323399399</v>
       </c>
       <c r="C10">
-        <v>0.5916736138517826</v>
+        <v>0.5837592819091525</v>
       </c>
       <c r="D10">
-        <v>0.4825523572072717</v>
+        <v>0.5633658838424578</v>
       </c>
       <c r="E10">
-        <v>0.6946598859926142</v>
+        <v>0.7505770339162116</v>
       </c>
       <c r="F10">
-        <v>0.6808572570925593</v>
+        <v>0.7506675864274018</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2349671465221997</v>
+        <v>0.2495182209949923</v>
       </c>
       <c r="C11">
-        <v>0.5153392861830149</v>
+        <v>0.5857948382811914</v>
       </c>
       <c r="D11">
-        <v>0.3670491565632086</v>
+        <v>0.4537182255294631</v>
       </c>
       <c r="E11">
-        <v>0.6058458191348758</v>
+        <v>0.6735860936283224</v>
       </c>
       <c r="F11">
-        <v>0.5812282079097323</v>
+        <v>0.6492850719707854</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
